--- a/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e age split 65  1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e age split 65  1980-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27004DF9-D85B-ED4E-9E88-977D1DD58FC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E6E21-B825-0C4B-8932-E9DE2AAC2C4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
